--- a/data/Classess_2022_biotech.xlsx
+++ b/data/Classess_2022_biotech.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -175,7 +175,7 @@
     <t>st027720</t>
   </si>
   <si>
-    <t>st027720@student.spbu.ru</t>
+    <t>st027720@ad.pu.ru</t>
   </si>
   <si>
     <t>Гешко</t>
@@ -398,7 +398,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,7 +416,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -425,13 +424,57 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -445,27 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +496,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -482,24 +518,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -513,14 +541,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -529,9 +549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -552,22 +571,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,73 +581,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,116 +771,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -823,6 +834,19 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -844,6 +868,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,7 +915,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,7 +924,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,73 +952,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1000,6 +1023,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1333,7 +1357,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1344,43 +1368,43 @@
     <col min="4" max="4" width="8.81481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.4537037037037" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.9074074074074" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2">
@@ -1388,19 +1412,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2">
@@ -1408,19 +1432,19 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2">
@@ -1428,19 +1452,19 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2">
@@ -1448,19 +1472,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="2">
@@ -1468,19 +1492,19 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="2">
@@ -1488,19 +1512,19 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="2">
@@ -1508,19 +1532,19 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="2">
@@ -1528,19 +1552,19 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="2">
@@ -1548,19 +1572,19 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="2">
@@ -1568,19 +1592,19 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2">
@@ -1588,19 +1612,19 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="2">
@@ -1608,19 +1632,19 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="2">
@@ -1628,19 +1652,19 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="2">
@@ -1648,19 +1672,19 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="2">
@@ -1668,19 +1692,19 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F17" s="2">
@@ -1688,19 +1712,19 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -1708,19 +1732,19 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="2">
@@ -1728,19 +1752,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F20" s="2">
@@ -1748,19 +1772,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="2">
@@ -1768,19 +1792,19 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F22" s="2">
@@ -1788,19 +1812,19 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>106</v>
       </c>
       <c r="F23" s="2">
@@ -1808,19 +1832,19 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="2">
@@ -1828,19 +1852,19 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>115</v>
       </c>
       <c r="F25" s="2">
@@ -1848,19 +1872,19 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F26" s="2">
@@ -1868,19 +1892,19 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="2">
@@ -1888,7 +1912,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
+  <autoFilter ref="A1:F27">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/data/Classess_2022_biotech.xlsx
+++ b/data/Classess_2022_biotech.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>Family</t>
   </si>
@@ -386,6 +386,18 @@
   </si>
   <si>
     <t>st102495@student.spbu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Токарева </t>
+  </si>
+  <si>
+    <t>Лидия</t>
+  </si>
+  <si>
+    <t>st105164</t>
+  </si>
+  <si>
+    <t>st105164@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -393,12 +405,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,38 +447,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -480,9 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -497,7 +485,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -505,29 +500,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -542,15 +514,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -558,7 +523,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -571,6 +551,44 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -587,187 +605,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,52 +864,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,9 +890,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,17 +932,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,59 +952,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1024,6 +1042,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1352,12 +1371,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1911,6 +1930,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" ht="16.8" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F27">
     <extLst/>

--- a/data/Classess_2022_biotech.xlsx
+++ b/data/Classess_2022_biotech.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
   <si>
     <t>Family</t>
   </si>
@@ -398,6 +398,21 @@
   </si>
   <si>
     <t>st105164@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимир </t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>st101530</t>
+  </si>
+  <si>
+    <t>st101530@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -406,9 +421,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -453,6 +468,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -461,21 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,21 +493,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -513,32 +545,39 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -552,25 +591,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -582,13 +604,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -605,187 +620,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,30 +881,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -929,11 +920,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,73 +980,64 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1043,6 +1058,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1371,12 +1387,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1950,12 +1966,33 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F27">
+  <autoFilter ref="A1:F28">
     <extLst/>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" display="st103018@student.spbu.ru"/>
+    <hyperlink ref="E29" r:id="rId2" display="st101530@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" fitToWidth="0" fitToHeight="0" orientation="portrait" errors="blank" horizontalDpi="600" verticalDpi="600"/>

--- a/data/Classess_2022_biotech.xlsx
+++ b/data/Classess_2022_biotech.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -420,12 +420,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,23 +470,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF954F72"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -522,16 +513,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -545,17 +537,15 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -576,8 +566,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -590,20 +612,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -620,19 +628,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,163 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,17 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -920,21 +917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -947,8 +929,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,66 +993,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1058,7 +1066,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1392,7 +1400,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28:F29"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1987,7 +1995,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28">
+  <autoFilter ref="A1:F29">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/data/Classess_2022_biotech.xlsx
+++ b/data/Classess_2022_biotech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9312"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -477,20 +477,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -507,23 +493,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -537,15 +553,17 @@
       <scheme val="major"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -560,46 +578,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -612,6 +598,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -628,13 +628,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,157 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,6 +902,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -913,6 +924,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,43 +955,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,57 +984,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1398,9 +1398,9 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:A29"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1471,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1491,7 +1491,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1731,7 +1731,7 @@
         <v>76</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1751,7 +1751,7 @@
         <v>80</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1811,7 +1811,7 @@
         <v>93</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1831,7 +1831,7 @@
         <v>97</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1851,7 +1851,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1871,7 +1871,7 @@
         <v>106</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1911,7 +1911,7 @@
         <v>115</v>
       </c>
       <c r="F25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1931,7 +1931,7 @@
         <v>119</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1951,7 +1951,7 @@
         <v>122</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" ht="16.8" spans="1:6">
@@ -1971,7 +1971,7 @@
         <v>126</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/data/Classess_2022_biotech.xlsx
+++ b/data/Classess_2022_biotech.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>Family</t>
   </si>
@@ -413,6 +413,43 @@
   </si>
   <si>
     <t>st101530@student.spbu.ru</t>
+  </si>
+  <si>
+    <r>
+      <t>Казарин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Семён</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Станиславович</t>
+  </si>
+  <si>
+    <t>st103323</t>
+  </si>
+  <si>
+    <t>st103323@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -420,12 +457,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,70 +513,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF7F87A0"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -553,6 +560,53 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -561,6 +615,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -584,8 +645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -605,13 +667,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -628,25 +683,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,157 +845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,56 +1051,56 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1067,6 +1122,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1395,12 +1453,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F20:F21"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1994,6 +2052,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F29">
     <extLst/>

--- a/data/Classess_2022_biotech.xlsx
+++ b/data/Classess_2022_biotech.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="204"/>
+      </rPr>
       <t>Казарин</t>
     </r>
     <r>
@@ -430,6 +436,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="204"/>
+      </rPr>
       <t>Семён</t>
     </r>
     <r>
@@ -457,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -531,8 +543,47 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -540,13 +591,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -560,9 +604,62 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -576,97 +673,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -683,13 +695,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,43 +839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,121 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,6 +955,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -959,26 +997,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,15 +1024,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,66 +1060,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1458,7 +1470,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2073,7 +2085,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F29">
+  <autoFilter ref="A1:F30">
     <extLst/>
   </autoFilter>
   <hyperlinks>
